--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_1_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_1_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01177902937386835</v>
+        <v>-0.02314597604078636</v>
       </c>
       <c r="C2">
-        <v>0.3233677337305382</v>
+        <v>0.3579920056255013</v>
       </c>
       <c r="D2">
-        <v>0.1387525778210147</v>
+        <v>0.1782699060034266</v>
       </c>
       <c r="E2">
-        <v>0.3724950708680783</v>
+        <v>0.4222202103209018</v>
       </c>
       <c r="F2">
-        <v>0.3863630867095333</v>
+        <v>0.4363822494547141</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.008234150994489252</v>
+        <v>0.01177902937386835</v>
       </c>
       <c r="C3">
-        <v>0.3656812685479343</v>
+        <v>0.3233677337305382</v>
       </c>
       <c r="D3">
-        <v>0.1736781030421116</v>
+        <v>0.1387525778210147</v>
       </c>
       <c r="E3">
-        <v>0.4167470492302394</v>
+        <v>0.3724950708680783</v>
       </c>
       <c r="F3">
-        <v>0.4336794057244024</v>
+        <v>0.3863630867095333</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04114622104959433</v>
+        <v>-0.008234150994489252</v>
       </c>
       <c r="C4">
-        <v>0.2438785208639479</v>
+        <v>0.3656812685479343</v>
       </c>
       <c r="D4">
-        <v>0.09301430872978532</v>
+        <v>0.1736781030421116</v>
       </c>
       <c r="E4">
-        <v>0.3049824728239072</v>
+        <v>0.4167470492302394</v>
       </c>
       <c r="F4">
-        <v>0.315631483433317</v>
+        <v>0.4336794057244024</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.004251297071472607</v>
+        <v>0.04114622104959433</v>
       </c>
       <c r="C5">
-        <v>0.3196557001756482</v>
+        <v>0.2438785208639479</v>
       </c>
       <c r="D5">
-        <v>0.1664324393548997</v>
+        <v>0.09301430872978532</v>
       </c>
       <c r="E5">
-        <v>0.4079613209054257</v>
+        <v>0.3049824728239072</v>
       </c>
       <c r="F5">
-        <v>0.4278502102499434</v>
+        <v>0.315631483433317</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03152289704198964</v>
+        <v>-0.004251297071472607</v>
       </c>
       <c r="C6">
-        <v>0.3137577720403564</v>
+        <v>0.3196557001756482</v>
       </c>
       <c r="D6">
-        <v>0.1200567451426497</v>
+        <v>0.1664324393548997</v>
       </c>
       <c r="E6">
-        <v>0.3464920563918454</v>
+        <v>0.4079613209054257</v>
       </c>
       <c r="F6">
-        <v>0.3637200573468097</v>
+        <v>0.4278502102499434</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05669611638992965</v>
+        <v>-0.03152289704198964</v>
       </c>
       <c r="C7">
-        <v>0.309241221828214</v>
+        <v>0.3137577720403564</v>
       </c>
       <c r="D7">
-        <v>0.12362493933599</v>
+        <v>0.1200567451426497</v>
       </c>
       <c r="E7">
-        <v>0.3516033835673229</v>
+        <v>0.3464920563918454</v>
       </c>
       <c r="F7">
-        <v>0.3680513563860018</v>
+        <v>0.3637200573468097</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04410238231315148</v>
+        <v>-0.05669611638992965</v>
       </c>
       <c r="C8">
-        <v>0.2487243691024244</v>
+        <v>0.309241221828214</v>
       </c>
       <c r="D8">
-        <v>0.1063280554679864</v>
+        <v>0.12362493933599</v>
       </c>
       <c r="E8">
-        <v>0.3260798299005727</v>
+        <v>0.3516033835673229</v>
       </c>
       <c r="F8">
-        <v>0.3453909343541705</v>
+        <v>0.3680513563860018</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.07289500678705241</v>
+        <v>-0.04410238231315148</v>
       </c>
       <c r="C9">
-        <v>0.3460499651212735</v>
+        <v>0.2487243691024244</v>
       </c>
       <c r="D9">
-        <v>0.2127274776992719</v>
+        <v>0.1063280554679864</v>
       </c>
       <c r="E9">
-        <v>0.4612238910759848</v>
+        <v>0.3260798299005727</v>
       </c>
       <c r="F9">
-        <v>0.4919174337551497</v>
+        <v>0.3453909343541705</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05253816173664939</v>
+        <v>-0.07289500678705241</v>
       </c>
       <c r="C10">
-        <v>0.2093953811075043</v>
+        <v>0.3460499651212735</v>
       </c>
       <c r="D10">
-        <v>0.05818608614024737</v>
+        <v>0.2127274776992719</v>
       </c>
       <c r="E10">
-        <v>0.2412179225104291</v>
+        <v>0.4612238910759848</v>
       </c>
       <c r="F10">
-        <v>0.2578972532655152</v>
+        <v>0.4919174337551497</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.009352853557239749</v>
+        <v>-0.05253816173664939</v>
       </c>
       <c r="C11">
-        <v>0.4545107205050175</v>
+        <v>0.2093953811075043</v>
       </c>
       <c r="D11">
-        <v>0.223274494992554</v>
+        <v>0.05818608614024737</v>
       </c>
       <c r="E11">
-        <v>0.4725193064759936</v>
+        <v>0.2412179225104291</v>
       </c>
       <c r="F11">
-        <v>0.5281891459539978</v>
+        <v>0.2578972532655152</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_1_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_1_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04410238231315148</v>
+        <v>0.06204647633618569</v>
       </c>
       <c r="C9">
-        <v>0.2487243691024244</v>
+        <v>0.2035131537503989</v>
       </c>
       <c r="D9">
-        <v>0.1063280554679864</v>
+        <v>0.04871313030636959</v>
       </c>
       <c r="E9">
-        <v>0.3260798299005727</v>
+        <v>0.2207105124509696</v>
       </c>
       <c r="F9">
-        <v>0.3453909343541705</v>
+        <v>0.2320259427235655</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07289500678705241</v>
+        <v>0.2179584722456556</v>
       </c>
       <c r="C10">
-        <v>0.3460499651212735</v>
+        <v>0.2179584722456556</v>
       </c>
       <c r="D10">
-        <v>0.2127274776992719</v>
+        <v>0.1208316223875407</v>
       </c>
       <c r="E10">
-        <v>0.4612238910759848</v>
+        <v>0.3476084325610365</v>
       </c>
       <c r="F10">
-        <v>0.4919174337551497</v>
+        <v>0.3316452775870941</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.05253816173664939</v>
+        <v>0.3403795785247692</v>
       </c>
       <c r="C11">
-        <v>0.2093953811075043</v>
+        <v>0.3403795785247692</v>
       </c>
       <c r="D11">
-        <v>0.05818608614024737</v>
+        <v>0.1158582574766995</v>
       </c>
       <c r="E11">
-        <v>0.2412179225104291</v>
-      </c>
-      <c r="F11">
-        <v>0.2578972532655152</v>
+        <v>0.3403795785247692</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
